--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
+++ b/Logging_HALLANDS_LAN/Översikt HALLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45109</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>45113</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>45113</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>45113</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45113</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         <v>45118</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45121</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>45122</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45123</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
         <v>45125</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>45126</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45127</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45127</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>45128</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>45131</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         <v>45131</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>45131</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45131</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2639,7 +2639,7 @@
         <v>45131</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>45131</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
         <v>45132</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>45132</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>45134</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45135</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
